--- a/GEN2_XLSX_XRACTRL/defaultHRA.xlsx
+++ b/GEN2_XLSX_XRACTRL/defaultHRA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CLiMB\TOOLBOX_CLIMB_07072022\XLSX_XRACTRL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CLiMB\LMB_Toolkit_Latest\GEN2_XLSX_XRACTRL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22903213-CB21-4DF3-B0AA-1450CDE93828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1ABAEFE-7FC3-40A6-BFA7-6F5889F32B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="1845" windowWidth="18000" windowHeight="9360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -679,10 +679,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1392,300 +1391,299 @@
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="128" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="128" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="27.875" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>1</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>45</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>8</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>150</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>35</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="20" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="19" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="20" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="21" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="20" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="19" t="s">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1718,55 +1716,55 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="4"/>
+    <col min="1" max="1" width="3" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1777,21 +1775,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010053066CD242F9FA43A1D39D3973ECDBC4" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4658398741f832dc58cc6192f3a2fcc3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3b02ab3c-1b8d-452d-b5dd-dd59ac3636f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f638cce4d57b2249bd9f0360176134d1" ns2:_="">
     <xsd:import namespace="3b02ab3c-1b8d-452d-b5dd-dd59ac3636f7"/>
@@ -1963,24 +1946,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{231E270F-8ACF-4F66-AE86-4FB66333C100}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{363F0164-13B1-40F1-BE06-0ACAA0CAB275}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEAC53EC-78BC-49DA-802B-6E07C7CAF5D9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1996,4 +1977,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{363F0164-13B1-40F1-BE06-0ACAA0CAB275}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{231E270F-8ACF-4F66-AE86-4FB66333C100}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GEN2_XLSX_XRACTRL/defaultHRA.xlsx
+++ b/GEN2_XLSX_XRACTRL/defaultHRA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CLiMB\LMB_Toolkit_Latest\GEN2_XLSX_XRACTRL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1ABAEFE-7FC3-40A6-BFA7-6F5889F32B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0216C132-89CE-41F1-81DD-6D8FEC9FD94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,10 +208,10 @@
     <t>tfIf(s,[0 2:3],%s)</t>
   </si>
   <si>
-    <t>tfIfdl(s,[0 2:3],%s)</t>
-  </si>
-  <si>
-    <t>tfPhie(s,[0:3],%s)</t>
+    <t>tfPhie(s,[1:3],%s)</t>
+  </si>
+  <si>
+    <t>tfIfdl(s,[2:3],%s)</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1392,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="128" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1631,7 +1631,7 @@
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>30</v>
@@ -1641,7 +1641,7 @@
       <c r="A22" s="10"/>
       <c r="B22" s="13"/>
       <c r="C22" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>30</v>
@@ -1775,6 +1775,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010053066CD242F9FA43A1D39D3973ECDBC4" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4658398741f832dc58cc6192f3a2fcc3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3b02ab3c-1b8d-452d-b5dd-dd59ac3636f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f638cce4d57b2249bd9f0360176134d1" ns2:_="">
     <xsd:import namespace="3b02ab3c-1b8d-452d-b5dd-dd59ac3636f7"/>
@@ -1946,7 +1952,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1955,13 +1961,16 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{231E270F-8ACF-4F66-AE86-4FB66333C100}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEAC53EC-78BC-49DA-802B-6E07C7CAF5D9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1979,19 +1988,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{363F0164-13B1-40F1-BE06-0ACAA0CAB275}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{231E270F-8ACF-4F66-AE86-4FB66333C100}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GEN2_XLSX_XRACTRL/defaultHRA.xlsx
+++ b/GEN2_XLSX_XRACTRL/defaultHRA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CLiMB\LMB_Toolkit_Latest\GEN2_XLSX_XRACTRL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0216C132-89CE-41F1-81DD-6D8FEC9FD94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA52EC4-9A1D-4333-8188-FFB6760786ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6210" yWindow="2040" windowWidth="21150" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -199,19 +199,19 @@
     <t>[0, logspace(-5,0,499)]</t>
   </si>
   <si>
-    <t>tfPhis(s,2,%s)</t>
-  </si>
-  <si>
     <t>tfPhise(s,[0 2:3],%s)</t>
   </si>
   <si>
-    <t>tfIf(s,[0 2:3],%s)</t>
-  </si>
-  <si>
     <t>tfPhie(s,[1:3],%s)</t>
   </si>
   <si>
-    <t>tfIfdl(s,[2:3],%s)</t>
+    <t>tfPhis(s,[2:3],%s)</t>
+  </si>
+  <si>
+    <t>tfIf(s,[0 2 2.5 3],%s)</t>
+  </si>
+  <si>
+    <t>tfIfdl(s,[2 2.5 3],%s)</t>
   </si>
 </sst>
 </file>
@@ -1391,8 +1391,8 @@
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="128" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="128" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1621,7 +1621,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>30</v>
@@ -1641,7 +1641,7 @@
       <c r="A22" s="10"/>
       <c r="B22" s="13"/>
       <c r="C22" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>30</v>
@@ -1651,7 +1651,7 @@
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>30</v>
@@ -1661,7 +1661,7 @@
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>30</v>
@@ -1775,9 +1775,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1953,19 +1956,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{231E270F-8ACF-4F66-AE86-4FB66333C100}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{363F0164-13B1-40F1-BE06-0ACAA0CAB275}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1989,9 +1988,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{363F0164-13B1-40F1-BE06-0ACAA0CAB275}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{231E270F-8ACF-4F66-AE86-4FB66333C100}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>